--- a/src/dye/testfiles/invalid_decimal_fields.xlsx
+++ b/src/dye/testfiles/invalid_decimal_fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1180" windowWidth="27460" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="1160" windowWidth="27460" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>String</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>SOLAR_SIMULATOR</t>
-  </si>
-  <si>
-    <t>DSSC_KEYWORDS</t>
   </si>
   <si>
     <t>DSSC_COMMENTS</t>
@@ -201,23 +198,23 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,15 +493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,30 +541,29 @@
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -591,20 +587,19 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="5"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="1">
+        <v>4</v>
+      </c>
       <c r="R2" s="1">
         <v>4</v>
       </c>
-      <c r="S2" s="1">
-        <v>4</v>
-      </c>
+      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -628,20 +623,19 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="1">
+        <v>10</v>
+      </c>
       <c r="R3" s="1">
         <v>10</v>
       </c>
-      <c r="S3" s="1">
-        <v>10</v>
-      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -659,16 +653,15 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="5"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -681,31 +674,30 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -714,56 +706,55 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:20" ht="25" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="O8" s="10" t="s">
@@ -772,85 +763,79 @@
       <c r="P8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="R8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="S8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="T8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:20" ht="97" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="97" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="4" t="s">
+      <c r="P9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>34</v>
+      <c r="Q9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
